--- a/projeto/FUNC.xlsx
+++ b/projeto/FUNC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_atendimento\NIBO WEB API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C601A-CD27-482D-B324-482DDB4D75C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6664AC-8482-4FAA-9513-243A7708758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{A5566D1E-FB50-4646-A727-6AF21217A2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="316">
   <si>
     <t>nome</t>
   </si>
@@ -975,19 +975,34 @@
   </si>
   <si>
     <t>33fe4e6f-e22a-45c7-b162-1e031ee3cc71</t>
+  </si>
+  <si>
+    <t>a8fc-4770-968d-93cc49ced1bd</t>
+  </si>
+  <si>
+    <t>PALOMA DE JESUS SANTOS</t>
+  </si>
+  <si>
+    <t>29b41aac-c42c-4190-8652-60e5410b593a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5A5C5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1016,9 +1031,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3093,10 +3111,33 @@
         <v>312</v>
       </c>
     </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>5283</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>5284</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
     <sortCondition ref="B1:B156"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projeto/FUNC.xlsx
+++ b/projeto/FUNC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_atendimento\NIBO WEB API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6664AC-8482-4FAA-9513-243A7708758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875430D8-E8FD-47C8-9A6B-2827C3D26DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{A5566D1E-FB50-4646-A727-6AF21217A2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="322">
   <si>
     <t>nome</t>
   </si>
@@ -984,13 +984,31 @@
   </si>
   <si>
     <t>29b41aac-c42c-4190-8652-60e5410b593a</t>
+  </si>
+  <si>
+    <t>ROSY KELLY CORDEIRO</t>
+  </si>
+  <si>
+    <t>a5bc41fc-7684-44c5-9817-a6b1c315c403</t>
+  </si>
+  <si>
+    <t>ANA LUCIA MOTA LINO</t>
+  </si>
+  <si>
+    <t>520b82a5-312f-4441-8434-0b2af059dc91</t>
+  </si>
+  <si>
+    <t>ROSALINDA SOARES</t>
+  </si>
+  <si>
+    <t>205f5ec9-a3b2-4deb-89fc-dba13e1288f5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1025,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FF5A5C5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1031,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1039,6 +1063,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3133,6 +3158,39 @@
         <v>315</v>
       </c>
     </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>5289</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>5286</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>5287</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
     <sortCondition ref="B1:B156"/>

--- a/projeto/FUNC.xlsx
+++ b/projeto/FUNC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875430D8-E8FD-47C8-9A6B-2827C3D26DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8E0775-8D11-4ECA-AA49-149EC1D93F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{A5566D1E-FB50-4646-A727-6AF21217A2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="322">
   <si>
     <t>nome</t>
   </si>
@@ -1398,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3191,6 +3191,17 @@
         <v>321</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>5288</v>
+      </c>
+      <c r="B163" t="s">
+        <v>232</v>
+      </c>
+      <c r="C163" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
     <sortCondition ref="B1:B156"/>

--- a/projeto/FUNC.xlsx
+++ b/projeto/FUNC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8E0775-8D11-4ECA-AA49-149EC1D93F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB79C4-B51A-4CD0-B573-1803D2FD32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{A5566D1E-FB50-4646-A727-6AF21217A2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="328">
   <si>
     <t>nome</t>
   </si>
@@ -1002,6 +1002,24 @@
   </si>
   <si>
     <t>205f5ec9-a3b2-4deb-89fc-dba13e1288f5</t>
+  </si>
+  <si>
+    <t>ef77c5f6-bf69-4c0a-973e-021a0f09c1a3</t>
+  </si>
+  <si>
+    <t>PALOMA LUCIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>784cd1a3-c037-4151-94de-bba47591cc3d</t>
+  </si>
+  <si>
+    <t>DAYANE ARAUJO JESUS</t>
+  </si>
+  <si>
+    <t>SILEDI MARIA ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>4f4f7a56-ae5d-485e-a4f1-6d35905142f4</t>
   </si>
 </sst>
 </file>
@@ -1017,22 +1035,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF5A5C5E"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF5A5C5E"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF5A5C5E"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1055,15 +1076,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+      <selection activeCell="B166" sqref="B156:B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3118,7 +3140,7 @@
       <c r="A156">
         <v>5242</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C156" t="s">
@@ -3129,7 +3151,7 @@
       <c r="A157">
         <v>5263</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C157" t="s">
@@ -3195,11 +3217,44 @@
       <c r="A163">
         <v>5288</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>5290</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>5291</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C165" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>5292</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/projeto/FUNC.xlsx
+++ b/projeto/FUNC.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_atendimento\NIBO WEB API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB79C4-B51A-4CD0-B573-1803D2FD32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58DAFA-904E-4C83-820E-B246E9A399B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{A5566D1E-FB50-4646-A727-6AF21217A2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$165</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="329">
   <si>
     <t>nome</t>
   </si>
@@ -977,49 +980,52 @@
     <t>33fe4e6f-e22a-45c7-b162-1e031ee3cc71</t>
   </si>
   <si>
-    <t>a8fc-4770-968d-93cc49ced1bd</t>
-  </si>
-  <si>
     <t>PALOMA DE JESUS SANTOS</t>
   </si>
   <si>
     <t>29b41aac-c42c-4190-8652-60e5410b593a</t>
   </si>
   <si>
+    <t>ANA LUCIA MOTA LINO</t>
+  </si>
+  <si>
+    <t>ROSALINDA SOARES</t>
+  </si>
+  <si>
     <t>ROSY KELLY CORDEIRO</t>
   </si>
   <si>
+    <t>PALOMA LUCIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>SILEDI MARIA ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>PAULO ROBERTO TRINDADE</t>
+  </si>
+  <si>
+    <t>520b82a5-312f-4441-8434-0b2af059dc91</t>
+  </si>
+  <si>
+    <t>205f5ec9-a3b2-4deb-89fc-dba13e1288f5</t>
+  </si>
+  <si>
     <t>a5bc41fc-7684-44c5-9817-a6b1c315c403</t>
   </si>
   <si>
-    <t>ANA LUCIA MOTA LINO</t>
-  </si>
-  <si>
-    <t>520b82a5-312f-4441-8434-0b2af059dc91</t>
-  </si>
-  <si>
-    <t>ROSALINDA SOARES</t>
-  </si>
-  <si>
-    <t>205f5ec9-a3b2-4deb-89fc-dba13e1288f5</t>
-  </si>
-  <si>
     <t>ef77c5f6-bf69-4c0a-973e-021a0f09c1a3</t>
   </si>
   <si>
-    <t>PALOMA LUCIA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>784cd1a3-c037-4151-94de-bba47591cc3d</t>
-  </si>
-  <si>
-    <t>DAYANE ARAUJO JESUS</t>
-  </si>
-  <si>
-    <t>SILEDI MARIA ALVES DOS SANTOS</t>
-  </si>
-  <si>
     <t>4f4f7a56-ae5d-485e-a4f1-6d35905142f4</t>
+  </si>
+  <si>
+    <t>a9966e94-5325-44d7-a2ea-e53973499e7f</t>
+  </si>
+  <si>
+    <t>35d6d52e-6fa8-4d0a-874d-3ebd1497739a</t>
+  </si>
+  <si>
+    <t>JUSCILENE LIMA DE CARVALHO</t>
   </si>
 </sst>
 </file>
@@ -1035,25 +1041,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF5A5C5E"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Aptos Narrow"/>
+      <sz val="8"/>
+      <color rgb="FF5A5C5E"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF5A5C5E"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1076,13 +1079,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1422,13 +1426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B166" sqref="B156:B166"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="39.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -1444,1822 +1449,1823 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>5176</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>4908</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>5038</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>5028</v>
+        <v>1221</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>4558</v>
+        <v>1464</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>5114</v>
+        <v>1499</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>5170</v>
+        <v>2063</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>5182</v>
+        <v>2086</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>5225</v>
+        <v>2638</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>4981</v>
+        <v>2916</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>5235</v>
+        <v>3014</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>5167</v>
+        <v>3230</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>5019</v>
+        <v>3358</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>4863</v>
+        <v>3435</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>5257</v>
+        <v>3528</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>5078</v>
+        <v>3688</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>4734</v>
+        <v>3709</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>3908</v>
+        <v>3727</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>5224</v>
+        <v>3729</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>5160</v>
+        <v>3811</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>5008</v>
+        <v>3874</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>5208</v>
+        <v>3908</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>5046</v>
+        <v>3951</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>4262</v>
+        <v>4007</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>5127</v>
+        <v>4031</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>5133</v>
+        <v>4039</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>4806</v>
+        <v>4111</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>5138</v>
+        <v>4262</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>5281</v>
+        <v>4300</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>5113</v>
+        <v>4333</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>4007</v>
+        <v>4340</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>5271</v>
+        <v>4369</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>4561</v>
+        <v>4390</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>4340</v>
+        <v>4433</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>3230</v>
+        <v>4464</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>5123</v>
+        <v>4476</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2638</v>
+        <v>4509</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>5262</v>
+        <v>4530</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>5043</v>
+        <v>4558</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>4039</v>
+        <v>4561</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>5175</v>
+        <v>4563</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>4618</v>
+        <v>4581</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>3727</v>
+        <v>4618</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1464</v>
+        <v>4640</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>4390</v>
+        <v>4668</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>5274</v>
+        <v>4683</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>4509</v>
+        <v>4703</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>4957</v>
+        <v>4734</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>5130</v>
+        <v>4739</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>5272</v>
+        <v>4751</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>5102</v>
+        <v>4752</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>4111</v>
+        <v>4794</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>5151</v>
+        <v>4806</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2916</v>
+        <v>4816</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>5204</v>
+        <v>4820</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>3358</v>
+        <v>4837</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>4739</v>
+        <v>4838</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>5260</v>
+        <v>4841</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>5055</v>
+        <v>4858</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>5117</v>
+        <v>4861</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>5247</v>
+        <v>4863</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>5197</v>
+        <v>4886</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>5255</v>
+        <v>4895</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>4640</v>
+        <v>4896</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>3709</v>
+        <v>4902</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>5051</v>
+        <v>4904</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>3014</v>
+        <v>4906</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>5266</v>
+        <v>4908</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>5155</v>
+        <v>4925</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>5239</v>
+        <v>4935</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>3874</v>
+        <v>4945</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>4031</v>
+        <v>4950</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1499</v>
+        <v>4957</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>30</v>
+        <v>4972</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>4886</v>
+        <v>4981</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>5157</v>
+        <v>4994</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>4668</v>
+        <v>5008</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>5108</v>
+        <v>5019</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>4935</v>
+        <v>5028</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>4563</v>
+        <v>5038</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>5150</v>
+        <v>5043</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2086</v>
+        <v>5046</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>5177</v>
+        <v>5051</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>5137</v>
+        <v>5054</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>4858</v>
+        <v>5055</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>4464</v>
+        <v>5064</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>5238</v>
+        <v>5078</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>5236</v>
+        <v>5082</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>4820</v>
+        <v>5084</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>4794</v>
+        <v>5102</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>4300</v>
+        <v>5108</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>5278</v>
+        <v>5113</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>224</v>
+        <v>5114</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>5259</v>
+        <v>5117</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>4333</v>
+        <v>5118</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>5273</v>
+        <v>5123</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>3729</v>
+        <v>5127</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>2063</v>
+        <v>5129</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>4904</v>
+        <v>5130</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>3528</v>
+        <v>5133</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>4994</v>
+        <v>5137</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>4683</v>
+        <v>5138</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>5265</v>
+        <v>5139</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>1221</v>
+        <v>5144</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>4945</v>
+        <v>5150</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>4838</v>
+        <v>5151</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>3688</v>
+        <v>5155</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="C108" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>5251</v>
+        <v>5157</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>5082</v>
+        <v>5160</v>
       </c>
       <c r="B110" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>5181</v>
+        <v>5167</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>5268</v>
+        <v>5170</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>4369</v>
+        <v>5175</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>5275</v>
+        <v>5176</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>4841</v>
+        <v>5177</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>4530</v>
+        <v>5181</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>5129</v>
+        <v>5182</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="C117" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>3811</v>
+        <v>5197</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>4896</v>
+        <v>5201</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>5201</v>
+        <v>5203</v>
       </c>
       <c r="B120" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C120" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>4837</v>
+        <v>5204</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>5054</v>
+        <v>5208</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>4751</v>
+        <v>5218</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>236</v>
+        <v>5224</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>4581</v>
+        <v>5225</v>
       </c>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>5279</v>
+        <v>5227</v>
       </c>
       <c r="B126" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>5203</v>
+        <v>5232</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>5277</v>
+        <v>5235</v>
       </c>
       <c r="B128" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>4433</v>
+        <v>5236</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>5254</v>
+        <v>5238</v>
       </c>
       <c r="B130" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="C130" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>3951</v>
+        <v>5239</v>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>5252</v>
+        <v>5242</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="C132" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>5139</v>
+        <v>5247</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>4902</v>
+        <v>5251</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>5227</v>
+        <v>5252</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>4816</v>
+        <v>5254</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>5064</v>
+        <v>5255</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="C137" t="s">
-        <v>272</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>4925</v>
+        <v>5256</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>5218</v>
+        <v>5257</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>4950</v>
+        <v>5259</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>5144</v>
+        <v>5260</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>282</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>5232</v>
+        <v>5262</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="C142" t="s">
-        <v>274</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>4895</v>
-      </c>
-      <c r="B143" t="s">
-        <v>293</v>
+        <v>5263</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="C143" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>4752</v>
+        <v>5265</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="C144" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>5118</v>
+        <v>5266</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="C145" t="s">
-        <v>286</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>5084</v>
+        <v>5268</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>5280</v>
+        <v>5271</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>4476</v>
+        <v>5272</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>4906</v>
+        <v>5273</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>3435</v>
+        <v>5274</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>4972</v>
+        <v>5275</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>4703</v>
+        <v>5277</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>4861</v>
+        <v>5278</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="C153" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>5256</v>
+        <v>5279</v>
       </c>
       <c r="B154" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="C154" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C155" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>5242</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>309</v>
+        <v>5281</v>
+      </c>
+      <c r="B156" t="s">
+        <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>5263</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>311</v>
+        <v>5282</v>
+      </c>
+      <c r="B157" t="s">
+        <v>307</v>
       </c>
       <c r="C157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>5283</v>
+        <v>5284</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>5284</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>5286</v>
+      </c>
+      <c r="B159" t="s">
+        <v>315</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>5289</v>
-      </c>
-      <c r="B160" s="3" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B160" t="s">
         <v>316</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>5286</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>318</v>
+        <v>5288</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>5287</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>320</v>
+        <v>5289</v>
+      </c>
+      <c r="B162" t="s">
+        <v>317</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>5288</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>232</v>
+        <v>5290</v>
+      </c>
+      <c r="B163" t="s">
+        <v>318</v>
       </c>
       <c r="C163" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>5290</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>323</v>
+        <v>5292</v>
+      </c>
+      <c r="B164" t="s">
+        <v>319</v>
       </c>
       <c r="C164" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>5291</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>325</v>
+        <v>5293</v>
+      </c>
+      <c r="B165" t="s">
+        <v>320</v>
       </c>
       <c r="C165" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>5292</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>326</v>
+        <v>5283</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="C166" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
-    <sortCondition ref="B1:B156"/>
+  <autoFilter ref="A1:C165" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C158">
+    <sortCondition ref="A139:A158"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/projeto/FUNC.xlsx
+++ b/projeto/FUNC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_atendimento\NIBO WEB API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58DAFA-904E-4C83-820E-B246E9A399B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF5603-6E77-46A2-9F28-94D9DB1177E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{A5566D1E-FB50-4646-A727-6AF21217A2FB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
     <t>nome</t>
   </si>
@@ -1026,13 +1026,49 @@
   </si>
   <si>
     <t>JUSCILENE LIMA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>MARIA HELENA ALVES MIRANDA</t>
+  </si>
+  <si>
+    <t>30ebd8b4-4286-4a61-ae05-e0d3ab4687be</t>
+  </si>
+  <si>
+    <t>ROBENILDA OLIVEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>e018612e-d0f0-4193-be72-fc1006c020eb</t>
+  </si>
+  <si>
+    <t>IZABEL CRISTINA DA SILVA</t>
+  </si>
+  <si>
+    <t>a8438f04-73b5-4887-afe9-c0e37cbfb036</t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES PEREIRA</t>
+  </si>
+  <si>
+    <t>cfa03592-af27-4cc1-b3d4-327bc7dccccd</t>
+  </si>
+  <si>
+    <t>ELMA FRANCISCO DA SILVA</t>
+  </si>
+  <si>
+    <t>6e00b8f1-d212-4796-9557-93f8362fce84</t>
+  </si>
+  <si>
+    <t>fa360347-3a4a-48e9-8bde-a16186143f2e</t>
+  </si>
+  <si>
+    <t>f3da19e3-e4b0-4b41-87a3-6d902cad6813</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,6 +1094,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5A5C5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF268BD2"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF6C71C4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF002B36"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1079,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1090,11 +1150,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1424,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2929,7 +3012,7 @@
         <v>242</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -3044,229 +3127,306 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>5271</v>
+        <v>5272</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>5272</v>
+        <v>5273</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>5273</v>
+        <v>5274</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>5274</v>
+        <v>5275</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>5275</v>
+        <v>5277</v>
       </c>
       <c r="B151" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C151" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>5277</v>
+        <v>5278</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>5278</v>
+        <v>5279</v>
       </c>
       <c r="B153" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>5279</v>
+        <v>5280</v>
       </c>
       <c r="B154" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="C154" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>5280</v>
+        <v>5281</v>
       </c>
       <c r="B155" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="C155" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>5281</v>
+        <v>5282</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>5282</v>
-      </c>
-      <c r="B157" t="s">
-        <v>307</v>
+        <v>5284</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>5284</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>313</v>
+        <v>5286</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
       </c>
       <c r="C158" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>5286</v>
+        <v>5287</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>5287</v>
+        <v>5288</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>5289</v>
+        <v>5290</v>
       </c>
       <c r="B162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>5290</v>
+        <v>5292</v>
       </c>
       <c r="B163" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>5292</v>
+        <v>5293</v>
       </c>
       <c r="B164" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>5293</v>
-      </c>
-      <c r="B165" t="s">
-        <v>320</v>
+        <v>5283</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="C165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>5283</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>328</v>
+        <v>5301</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>327</v>
-      </c>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>5302</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>5303</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>5298</v>
+      </c>
+      <c r="B169" t="s">
+        <v>335</v>
+      </c>
+      <c r="C169" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>5295</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B172" s="6"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B175" s="6"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B176" s="7"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B178" s="6"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B180" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C165" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C158">
-    <sortCondition ref="A139:A158"/>
+  <autoFilter ref="A1:C164" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C157">
+    <sortCondition ref="A139:A157"/>
   </sortState>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/projeto/FUNC.xlsx
+++ b/projeto/FUNC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF5603-6E77-46A2-9F28-94D9DB1177E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB50B1-726F-4A6B-AD50-837BE78A3E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{A5566D1E-FB50-4646-A727-6AF21217A2FB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>nome</t>
   </si>
@@ -1062,13 +1062,31 @@
   </si>
   <si>
     <t>f3da19e3-e4b0-4b41-87a3-6d902cad6813</t>
+  </si>
+  <si>
+    <t>JANETE MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>2bbd27a9-836c-4094-bac0-09a92ea1a04b</t>
+  </si>
+  <si>
+    <t>RAQUEL FERREIRA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>9826981c-eee7-4fe3-ad32-c5b1fb8e3a01</t>
+  </si>
+  <si>
+    <t>TERESINHA DE AZEVEDO LIMA</t>
+  </si>
+  <si>
+    <t>c76a9e1a-a4af-4493-a8e2-18b5d0c36866</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,6 +1136,24 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5A5C5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF002B36"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1139,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1161,6 +1197,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FDFC0-3A15-4C58-8EAD-DAE315CBFD7D}">
   <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3390,13 +3435,37 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B171" s="5"/>
+      <c r="A171">
+        <v>5311</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B172" s="6"/>
+      <c r="A172">
+        <v>5317</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C172" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B173" s="7"/>
+      <c r="A173">
+        <v>5306</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C173" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B174" s="5"/>
